--- a/doc/需求分析及协议定义.xlsx
+++ b/doc/需求分析及协议定义.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
   <si>
     <t>1个字节</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,6 +267,42 @@
   <si>
     <t>SIMPLE</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场现有解决方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容联 云通讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.yuntongxun.com</t>
+  </si>
+  <si>
+    <t>融云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.rongcloud.cn/</t>
+  </si>
+  <si>
+    <t>今目标 即时通讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.jingoal.com</t>
+  </si>
+  <si>
+    <t>IMSDK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.imsdk.im/</t>
   </si>
 </sst>
 </file>
@@ -633,16 +669,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D8:I40"/>
+  <dimension ref="D8:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="28.625" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.875" customWidth="1"/>
     <col min="8" max="8" width="45" bestFit="1" customWidth="1"/>
@@ -823,34 +859,74 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D35" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D36" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D37" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D39" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D40" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D44" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D45" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D46" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D47" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/doc/需求分析及协议定义.xlsx
+++ b/doc/需求分析及协议定义.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="14595"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="14595" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="需求分析" sheetId="4" r:id="rId1"/>
     <sheet name="自定义协议" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="类型" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="106">
   <si>
     <t>1个字节</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,10 +27,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>协议设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>协议次版本号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -303,6 +299,137 @@
   </si>
   <si>
     <t>http://www.imsdk.im/</t>
+  </si>
+  <si>
+    <t>消息头协议设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Protocol Buffer消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N个字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议主版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本次版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息命令行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求后端服务器资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求后端服务器资源回应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆请求回应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登出请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保活回应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取朋友列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch service</t>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_ulMsgType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT_LOGIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT_BUDDY_LIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT_MSG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT_GROUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT_FILE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT_SWITCH_SERVICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT_OTHER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -335,20 +462,65 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -360,12 +532,45 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -671,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D8:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -687,246 +892,246 @@
   <sheetData>
     <row r="8" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
         <v>23</v>
       </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s">
         <v>32</v>
-      </c>
-      <c r="I10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" t="s">
         <v>36</v>
       </c>
-      <c r="F12" t="s">
+      <c r="I12" t="s">
         <v>34</v>
-      </c>
-      <c r="H12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
         <v>41</v>
-      </c>
-      <c r="F14" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D45" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" t="s">
         <v>68</v>
-      </c>
-      <c r="E45" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" t="s">
         <v>70</v>
-      </c>
-      <c r="E46" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="47" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D47" t="s">
+        <v>71</v>
+      </c>
+      <c r="E47" t="s">
         <v>72</v>
-      </c>
-      <c r="E47" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -940,91 +1145,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C11:L13"/>
+  <dimension ref="C11:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="10.125" customWidth="1"/>
+    <col min="8" max="8" width="7.5" customWidth="1"/>
+    <col min="9" max="9" width="14.25" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="11" max="11" width="16.625" customWidth="1"/>
+    <col min="12" max="12" width="27.25" customWidth="1"/>
+    <col min="13" max="13" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="E11" t="s">
+    <row r="11" spans="3:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="3:13" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="G12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" s="10"/>
+    </row>
+    <row r="13" spans="3:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="G13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" t="s">
-        <v>11</v>
-      </c>
+      <c r="J13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C11:L11"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1032,12 +1259,113 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B5:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="30.125" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C5" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="4">
+        <v>3</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="4">
+        <v>4</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="4">
+        <v>5</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="4">
+        <v>6</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1045,12 +1373,184 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="F3:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="21" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="18.75" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="F3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="F4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="F5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="F6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>3</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="F7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>4</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="F8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>5</v>
+      </c>
+      <c r="K8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="F9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>6</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="F10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>7</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/需求分析及协议定义.xlsx
+++ b/doc/需求分析及协议定义.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="14595" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="14595" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="需求分析" sheetId="4" r:id="rId1"/>
     <sheet name="自定义协议" sheetId="1" r:id="rId2"/>
     <sheet name="类型" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="具体消息" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="131">
   <si>
     <t>1个字节</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -329,10 +329,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消息命令行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -341,6 +337,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>请求后端服务器资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>请求后端服务器资源回应</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -429,6 +429,106 @@
   </si>
   <si>
     <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息ID for login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MI_LOGIN_REG_MSGSERVER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MI_LOGIN_RSP_MSGSERVER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X0101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MI_LOGIN_REG_LOGIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X0102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录操作回应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MI_LOGIN_RSP_LOGIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X0103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登出操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MI_LOGIN_REG_LOGOUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X0104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MI_LOGIN_RSP_LOGOUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X0105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登出操作回应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户保活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MI_LOGIN_REG_KEEPALIVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X0106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户保活回应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MI_LOGIN_RSP_KEEPALIVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X0107</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,7 +632,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -570,6 +670,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1261,8 +1370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1373,183 +1482,388 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F3:K10"/>
+  <dimension ref="B1:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.625" customWidth="1"/>
-    <col min="6" max="6" width="21" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="27.875" customWidth="1"/>
+    <col min="3" max="3" width="26.125" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
+    <col min="5" max="5" width="18.75" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="14.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="16.375" style="2" customWidth="1"/>
     <col min="10" max="10" width="10.875" style="2" customWidth="1"/>
     <col min="11" max="11" width="18.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="6:11" x14ac:dyDescent="0.15">
-      <c r="F3" s="8" t="s">
+    <row r="1" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C5" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="4">
+        <v>3</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="4">
+        <v>4</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="4">
+        <v>5</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="4">
+        <v>6</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="6:11" x14ac:dyDescent="0.15">
-      <c r="F4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="6:11" x14ac:dyDescent="0.15">
-      <c r="F5" s="2" t="s">
+      <c r="C18" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2">
-        <v>2</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="6:11" x14ac:dyDescent="0.15">
-      <c r="F6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2">
-        <v>3</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="6:11" x14ac:dyDescent="0.15">
-      <c r="F7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2">
-        <v>4</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="6:11" x14ac:dyDescent="0.15">
-      <c r="F8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2">
-        <v>5</v>
-      </c>
-      <c r="K8" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="6:11" x14ac:dyDescent="0.15">
-      <c r="F9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2">
-        <v>6</v>
-      </c>
-      <c r="K9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="6:11" x14ac:dyDescent="0.15">
-      <c r="F10" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1</v>
-      </c>
-      <c r="J10" s="2">
-        <v>7</v>
-      </c>
-      <c r="K10" s="2">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="C19" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/需求分析及协议定义.xlsx
+++ b/doc/需求分析及协议定义.xlsx
@@ -645,9 +645,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -680,6 +677,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1277,85 +1277,85 @@
   </cols>
   <sheetData>
     <row r="11" spans="3:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="9"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="8"/>
     </row>
     <row r="12" spans="3:13" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="M12" s="10"/>
+      <c r="M12" s="9"/>
     </row>
     <row r="13" spans="3:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="10"/>
+      <c r="M13" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1387,90 +1387,90 @@
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>0</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>2</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>3</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>4</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>5</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>6</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
   <dimension ref="B1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1495,7 +1495,7 @@
     <col min="3" max="3" width="26.125" customWidth="1"/>
     <col min="4" max="4" width="22.875" customWidth="1"/>
     <col min="5" max="5" width="18.75" customWidth="1"/>
-    <col min="6" max="6" width="19.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="22.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="14.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="16.375" style="2" customWidth="1"/>
@@ -1503,353 +1503,353 @@
     <col min="11" max="11" width="18.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="11" t="s">
+    <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="I6" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="J6" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="4">
+    <row r="7" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="3">
         <v>0</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H7" s="4">
+      <c r="G7" s="3">
         <v>1</v>
       </c>
-      <c r="I7" s="4">
+      <c r="H7" s="3">
         <v>1</v>
       </c>
-      <c r="J7" s="4">
+      <c r="I7" s="3">
         <v>0</v>
       </c>
-      <c r="K7" s="4">
+      <c r="J7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="4">
+    <row r="8" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H8" s="4">
+      <c r="G8" s="3">
         <v>1</v>
       </c>
-      <c r="I8" s="4">
+      <c r="H8" s="3">
         <v>1</v>
       </c>
-      <c r="J8" s="4">
+      <c r="I8" s="3">
         <v>0</v>
       </c>
-      <c r="K8" s="4">
+      <c r="J8" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="4">
+    <row r="9" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="3">
         <v>2</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H9" s="4">
+      <c r="G9" s="3">
         <v>1</v>
       </c>
-      <c r="I9" s="4">
+      <c r="H9" s="3">
         <v>1</v>
       </c>
-      <c r="J9" s="4">
+      <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="K9" s="4">
+      <c r="J9" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="4">
+    <row r="10" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="3">
         <v>3</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="4">
+      <c r="G10" s="3">
         <v>1</v>
       </c>
-      <c r="I10" s="4">
+      <c r="H10" s="3">
         <v>1</v>
       </c>
-      <c r="J10" s="4">
+      <c r="I10" s="3">
         <v>0</v>
       </c>
-      <c r="K10" s="4">
+      <c r="J10" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="4">
+    <row r="11" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="3">
         <v>4</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="4">
+      <c r="G11" s="3">
         <v>1</v>
       </c>
-      <c r="I11" s="4">
+      <c r="H11" s="3">
         <v>1</v>
       </c>
-      <c r="J11" s="4">
+      <c r="I11" s="3">
         <v>0</v>
       </c>
-      <c r="K11" s="4">
+      <c r="J11" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="4">
+    <row r="12" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="3">
         <v>5</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H12" s="4">
+      <c r="G12" s="3">
         <v>1</v>
       </c>
-      <c r="I12" s="4">
+      <c r="H12" s="3">
         <v>1</v>
       </c>
-      <c r="J12" s="4">
+      <c r="I12" s="3">
         <v>0</v>
       </c>
-      <c r="K12" s="4">
+      <c r="J12" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="4">
+    <row r="13" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="3">
         <v>6</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H13" s="4">
+      <c r="G13" s="3">
         <v>1</v>
       </c>
-      <c r="I13" s="4">
+      <c r="H13" s="3">
         <v>1</v>
       </c>
-      <c r="J13" s="4">
+      <c r="I13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="4">
+      <c r="J13" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="12" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="12" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="12" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="12" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="12" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="13" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="13" t="s">
         <v>130</v>
       </c>
     </row>
